--- a/DOM_Banner/output/dept_banner/Kathy Drinkwater_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Kathy Drinkwater_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,345 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Kay Peters, Kathy Drinkwater</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4384007494</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Role of Muscle Biopsy in Undifferentiated Myositis: A Case Report</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5010754669", "https://openalex.org/A5011646913"), au_display_name = c("Kay Peters", "Kathy Drinkwater"), au_orcid = c(NA, NA), author_position = c("first", "last"), au_affiliation_raw = c("University of Arizona College of Medicine, 1501 North Campbell Avenue, Tucson, AZ 85724, USA, +1 (480) 338-0890", "Department of Internal Medicine, University of Arizona, Banner University Medical Center, South Campus, Tucson, AZ 85713, USA"), institution_id = c("https://openalex.org/I138006243", 
-"https://openalex.org/I4210124665"), institution_display_name = c("University of Arizona", "Banner - University Medical Center Tucson"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62"), institution_country_code = c("US", "US"), institution_type = c("education", "healthcare"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210124665"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A 64-year-old female with coronary artery disease presented for nausea, emesis, non-bloody diarrhea for 3 weeks, and severe left lower extremity weakness. On admission, she was afebrile, normotensive, creatinine 12.14, aspartate aminotransferase(AST) 113, alanine aminotransferase(ALT) 103, lactate 3.0, and creatine kinase(CK) 10,388. She denied recent antibiotics, new foods, or recent travel. Her only new medication was rosuvastatin, and she reported a remote intolerance to simvastatin due to fatigue. She had 3/5 strength on left hip flexion, decreased sensation over the left thigh, and tenderness of the proximal muscle groups. The stool pathogen panel was positive for enteropathogenic/ enteroaggregative E. Coli (EPEC/EAEC), and the patient was treated for refractory diarrhea. Lab revealed: C-reactive protein(CRP) 39.2, erythrocyte sedimentation rate(ESR)&gt;145, lactate dehydrogenase(LDH) 764, CK 16,628, and normal thyroid function. MRI of the spine did not show radiculopathy or stenosis; however, the MRI of the lower extremities demonstrated bilateral muscle edema of the hip and thigh with most intense edema along the left long head bicep femoris and vastus lateralis concerning for myositis with greater proximal involvement. A biopsy of the most enhanced muscle regions from MRI was taken to help differentiate between infection, autoimmune myositis, or necrotizing myopathy such as statin-induced. The biopsy pathology found few leukocytes and no necrosis, highly inconsistent with autoimmune myositis or a statin-induced necrotizing myopathy and unlikely due to a lack of sampling due to its generous size. Based on the pathology report and labs, she was ultimately diagnosed with E. coli-induced rhabdomyolysis. Antinuclear antibody(ANA), anti-histidyl(Jo-1), antineutrophilic cytoplasmic antibody(ANCA), myeloperoxidase(MPO), proteinase-3(PR3), threonyl(PL-7), alanyl(PL-12), glycyl(EJ), isoleucyl(OJ), 3-hydroxy-3-methylglutaryl-coenzyme A reductase(HMGCR), anti-signal recognition particle(SRP), Mi-2 Alpha, Mi-2 Beta, melanoma differentiation-associated protein 5(MDA-5), antibodies against transcriptional intermediary factor(TIF-1y), and antinuclear matrix protein 2 antibody(NXP-2) were negative. Biopsy avoided inappropriate treatment in a patient with known high comorbidities. This case supports the importance of biopsy in the diagnosis and treatment of myositis. Statins are often blamed for myositis however, in Cochrane analysis of 37,039 pooled patients receiving 9.4% had symptoms of myalgia, which was comparable to the placebo and rhabdomyolysis was diagnosed in only 3 out of 19,4101Taylor Fiona et al.Statins for the Primary Prevention of Cardiovascular Disease.Cochrane Database of Systematic Reviews. 2013; https://doi.org/10.1002/14651858.cd004816.pub5Crossref Google Scholar. Statin-associated autoimmune myopathy is associated with an antibody against HMGCR and presents with necrotizing myopathy without substantial inflammation. Treatment entails indefinite discontinuation of statins in addition to immunosuppressive therapy2Mohassel Payam et al.The Spectrum of Statin Myopathy.Current Opinion in Rheumatology. 2013; 25: 747-752https://doi.org/10.1097/01.bor.0000434673.85515.89Crossref PubMed Scopus (53) Google Scholar, 3Saleh Yehia et al.Statin-Induced Necrotizing Autoimmune Myopathy: An Uncommon Complication of a Commonly Used Medication.Journal of the Saudi Heart Association. 2019; 31: 269-272https://doi.org/10.1016/j.jsha.2019.08.001Crossref Scopus (6) Google Scholar. Myositis caused by autoimmune reaction versus non-autoimmune myopathies is distinguished from the history, medications, physical exam, labs, and/or biopsy of the affected muscle4Mammen Andrew L. Which Non-autoimmune Myopathies Are Most Frequently Misdiagnosed as Myositis?.Current Opinion in Rheumatology. 2017; 29: 618-622https://doi.org/10.1097/bor.0000000000000441Crossref Google Scholar. Elevated CK, LDH, and inflammatory markers such as ESR and CRP indicate myositis; however, these labs are nonspecific and are elevated in numerous conditions. Imaging is best used to reduce sampling error of biopsies and confirm diagnosis as findings of muscle edema and atrophy are found in trauma, denervation, and infarction in addition to myositis5McMahon Colm J. et al.Muscle Edema.American Journal of Roentgenology. 2010; 194https://doi.org/10.2214/ajr.10.4247Crossref Google Scholar,6Lassche Saskia et al.MRI-Guided Biopsy as a Tool for Diagnosis and Research of Muscle Disorders.Journal of neuromuscular diseases. 2018; 5: 315-319https://doi.org/10.3233/JND-180318Crossref PubMed Scopus (20) Google Scholar. This case highlights why biopsy is the standard of care for a patient presenting with myositis by allowing immunohistological and morphological analysis of the muscle, avoiding unnecessary treatment, and guiding proper therapy.</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>The American Journal of Medicine</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The American Journal of Medicine</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S186920367</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.06.024</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0002-9343</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37451392</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.06.024</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>http://www.amjmed.com/article/S0002934323004345/pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>e199</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>e200</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>http://www.amjmed.com/article/S0002934323004345/pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4384007494</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4384007494", doi = "https://doi.org/10.1016/j.amjmed.2023.06.024", pmid = "https://pubmed.ncbi.nlm.nih.gov/37451392")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.06.024</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W173808884", "https://openalex.org/W2165005169", "https://openalex.org/W2750377819", "https://openalex.org/W2808251674", "https://openalex.org/W2967684460", "https://openalex.org/W4251941158")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4221035110", "https://openalex.org/W2013640173", "https://openalex.org/W3186063126", "https://openalex.org/W2230943006", "https://openalex.org/W2981181242", "https://openalex.org/W2116835862", "https://openalex.org/W4317877804", "https://openalex.org/W1514426427", "https://openalex.org/W4234078642", "https://openalex.org/W2407486201")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Kathy Drinkwater_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Kathy Drinkwater_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, 1501 North Campbell Avenue, Tucson, AZ 85724, USA, +1 (480) 338-0890; Department of Internal Medicine, University of Arizona, Banner University Medical Center, South Campus, Tucson, AZ 85713, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4384007494</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Role of Muscle Biopsy in Undifferentiated Myositis: A Case Report</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.06.024</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37451392</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.06.024</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
